--- a/Тест-кейсы АДМИНКА.xlsx
+++ b/Тест-кейсы АДМИНКА.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Тест- кейсы АДМИНКА на проверку валидации формы</t>
+  </si>
+  <si>
+    <t>проверка 123</t>
   </si>
 </sst>
 </file>
@@ -670,11 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -952,6 +955,11 @@
     <row r="25" spans="1:8">
       <c r="D25" s="7"/>
       <c r="F25" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Тест-кейсы АДМИНКА.xlsx
+++ b/Тест-кейсы АДМИНКА.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -195,7 +195,43 @@
     <t>Тест- кейсы АДМИНКА на проверку валидации формы</t>
   </si>
   <si>
-    <t>проверка 123</t>
+    <t>id9</t>
+  </si>
+  <si>
+    <t>Проверка корректной работы IP-фильтра "Безопасность веб".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Пользователь аутентифицирован как администратор, находится на вкладке "Безопасность веб".
+2. Известен и добавлен IP-адрес  Тестировщика 1 (разрешённый, пример:  192.168.0.10/32).
+3. Чекбокс   "Ограничить доступ к разделу по IP" активирован </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В поле под чекбоксом ввести адрес машины Тестировщика 1 (напр., 192.168.0.10/32).
+2. Нажать кнопку "Применить"
+3. Попытаться открыть панель управления и авторизоваться.
+</t>
+  </si>
+  <si>
+    <t>Авторизация и доступ к панели управления успешны.</t>
+  </si>
+  <si>
+    <t>id10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка корректной работы IP-фильтра </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Пользователь аутентифицирован как администратор, находится на вкладке "Безопасность веб".
+2. Известен и добавлен IP-адрес  Тестировщика 1 (неразрешенный, пример:  192.168.0.20/32).
+3. Чекбокс  "Ограничить доступ к разделу по IP" активирован </t>
+  </si>
+  <si>
+    <t>1. В поле под чекбоксом ввести адрес машины Тестировщика 1 (напр., 192.168.0.10/32).
+2. Нажать кнопку "Применить"
+3. Попытаться открыть панель управления и авторизоваться.</t>
+  </si>
+  <si>
+    <t>оступ должен быть запрещён (должна отображаться ошибка)</t>
   </si>
 </sst>
 </file>
@@ -673,11 +709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -938,9 +974,49 @@
         <v>49</v>
       </c>
     </row>
+    <row r="18" spans="1:8" ht="225">
+      <c r="A18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="19" spans="1:8">
       <c r="A19" s="13"/>
       <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="225">
+      <c r="A20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="D21" s="8"/>
@@ -955,11 +1031,6 @@
     <row r="25" spans="1:8">
       <c r="D25" s="7"/>
       <c r="F25" s="4"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="4" t="s">
-        <v>53</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
